--- a/Employee.xlsx
+++ b/Employee.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af93169d3ce1a11a/Desktop/project1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_C0BE243666D249856D8EA9AEB1C2CFDD7F81513B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E3B691E-2BCA-4374-850C-76B582C7C2A5}"/>
+  <bookViews>
+    <workbookView xWindow="1650" yWindow="720" windowWidth="15435" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Test" sheetId="1" r:id="rId4"/>
+    <sheet name="Test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -70,25 +79,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,51 +112,67 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -330,20 +362,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -357,7 +394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -368,10 +405,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="6">
-        <v>45697.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -382,10 +419,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="6">
-        <v>45705.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -396,10 +433,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="6">
-        <v>45708.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -410,10 +447,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="6">
-        <v>45702.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -424,10 +461,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="6">
-        <v>45711.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -437,11 +474,19 @@
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6">
-        <v>45708.0</v>
-      </c>
+      <c r="D7" s="7">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>